--- a/PangkalanData/public/Template/Template Penelitian.xlsx
+++ b/PangkalanData/public/Template/Template Penelitian.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Kategori</t>
-  </si>
-  <si>
-    <t>Unit</t>
   </si>
   <si>
     <t>Peneliti</t>
@@ -60,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -94,62 +91,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +138,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -186,14 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,13 +175,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -225,7 +207,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,37 +243,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,145 +387,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,30 +453,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -495,16 +468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,11 +508,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,151 +538,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1075,7 +1072,7 @@
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:13">
+    <row r="1" ht="25" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,15 +1109,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1"/>
   </sheetData>

--- a/PangkalanData/public/Template/Template Penelitian.xlsx
+++ b/PangkalanData/public/Template/Template Penelitian.xlsx
@@ -2,44 +2,47 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Kategori</t>
-  </si>
-  <si>
-    <t>Peneliti</t>
-  </si>
-  <si>
-    <t>Judul</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>TEMPLATE IMPORT DATA PENELITIAN</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Kategori Penelitian*</t>
+  </si>
+  <si>
+    <t>Peneliti*</t>
+  </si>
+  <si>
+    <t>Judul*</t>
   </si>
   <si>
     <t>Kerja Sama</t>
   </si>
   <si>
-    <t>Tanggal Awal</t>
-  </si>
-  <si>
-    <t>Tanggal Akhir</t>
+    <t>Tanggal Mulai Penelitian</t>
+  </si>
+  <si>
+    <t>Tanggal Akhir Penelitian</t>
   </si>
   <si>
     <t>Lama Penelitian</t>
   </si>
   <si>
-    <t>Tipe Waktu</t>
-  </si>
-  <si>
     <t>Publikasi</t>
   </si>
   <si>
@@ -49,22 +52,66 @@
     <t>Abstrak</t>
   </si>
   <si>
-    <t>Media</t>
+    <t>Tanda (*) Data Wajib Diisi!</t>
+  </si>
+  <si>
+    <t>Warna BIRU</t>
+  </si>
+  <si>
+    <t>Harus Berupa Angka, Tidak boleh ada simbol</t>
+  </si>
+  <si>
+    <t>Warna MERAH</t>
+  </si>
+  <si>
+    <t>Format tanggal "Hari/Bulan/Tahun"</t>
+  </si>
+  <si>
+    <t>Warna HIJAU</t>
+  </si>
+  <si>
+    <t>Harus Memilih dari Daftar (Dropdown)</t>
+  </si>
+  <si>
+    <t>Daftar Pilihan</t>
+  </si>
+  <si>
+    <t>Bahasa</t>
+  </si>
+  <si>
+    <t>Sastra</t>
+  </si>
+  <si>
+    <t>Daftar Pilihan 2</t>
+  </si>
+  <si>
+    <t>Terbit</t>
+  </si>
+  <si>
+    <t>Belum Terbit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -84,8 +131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -99,8 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +157,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,60 +232,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,7 +277,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBBBB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,6 +319,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,132 +427,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,25 +497,78 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,16 +603,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,26 +641,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,158 +686,224 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,7 +956,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -765,7 +966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -775,39 +976,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,160 +1087,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1051,75 +1223,219 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" customWidth="1"/>
-    <col min="2" max="3" width="17.5648148148148" customWidth="1"/>
-    <col min="4" max="4" width="20.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="22.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="20.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.55555555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.44444444444444" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="29" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="15" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
+    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A2" s="8"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" ht="22" customHeight="1"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="12"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:1">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:1">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:1">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:1">
+      <c r="A14" s="21"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.15" spans="2:9">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" ht="15.15" spans="1:1">
+      <c r="A16" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15"/>
+    <row r="20" ht="15.15" spans="1:1">
+      <c r="A20" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="K3:K1048576">
+      <formula1>$A$21:$A$22</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan salah" error="Harus sesuai format H/B/T&#10;" sqref="H1:H2;I1:I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D1:D2;K1:K2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="J3:J1048576;L3:L1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D3:D1048576">
+      <formula1>$A$17:$A$19</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan salah" error="Harus sesuai format H/B/T&#10;" sqref="H3:H1048576;I3:I1048576">
+      <formula1>36892</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="J1:J2;L1:L2"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/PangkalanData/public/Template/Template Penelitian.xlsx
+++ b/PangkalanData/public/Template/Template Penelitian.xlsx
@@ -96,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -131,40 +131,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +178,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -232,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -246,6 +230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -253,9 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,61 +313,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,103 +475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,36 +583,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,153 +660,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,7 +843,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/PangkalanData/public/Template/Template Penelitian.xlsx
+++ b/PangkalanData/public/Template/Template Penelitian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TEMPLATE IMPORT DATA PENELITIAN</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Lama Penelitian</t>
   </si>
   <si>
+    <t>Dalam Waktu</t>
+  </si>
+  <si>
     <t>Publikasi</t>
   </si>
   <si>
@@ -89,6 +92,21 @@
   </si>
   <si>
     <t>Belum Terbit</t>
+  </si>
+  <si>
+    <t>Daftar Pilihan 3</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Minggu</t>
+  </si>
+  <si>
+    <t>Hari</t>
   </si>
 </sst>
 </file>
@@ -96,11 +114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -125,19 +143,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -145,6 +179,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -153,17 +201,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,10 +232,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,82 +285,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -313,13 +331,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,31 +427,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,37 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,91 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,41 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,21 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -684,153 +663,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,10 +1241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1239,10 +1257,9 @@
     <col min="6" max="7" width="29" style="1" customWidth="1"/>
     <col min="8" max="9" width="13" style="4" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29" style="1" customWidth="1"/>
     <col min="15" max="17" width="9" style="1"/>
     <col min="18" max="18" width="9.55555555555556" style="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="1"/>
@@ -1250,7 +1267,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1282,14 +1299,17 @@
       <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A2" s="8"/>
       <c r="B2" s="2"/>
       <c r="C2" s="9"/>
@@ -1301,8 +1321,9 @@
       <c r="I2" s="11"/>
       <c r="J2" s="24"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A3" s="9"/>
@@ -1313,7 +1334,7 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1325,12 +1346,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:1">
@@ -1338,12 +1359,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:1">
@@ -1351,12 +1372,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:1">
@@ -1370,37 +1391,63 @@
     </row>
     <row r="16" ht="15.15" spans="1:1">
       <c r="A16" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="15.15"/>
     <row r="20" ht="15.15" spans="1:1">
       <c r="A20" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15"/>
+    <row r="24" ht="15.15" spans="1:1">
+      <c r="A24" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A8"/>
@@ -1417,23 +1464,23 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="K3:K1048576">
-      <formula1>$A$21:$A$22</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan salah" error="Harus sesuai format H/B/T&#10;" sqref="H1:H2;I1:I2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D1:D2;K1:K2"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="J3:J1048576;L3:L1048576">
-      <formula1>0</formula1>
-    </dataValidation>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D3:D1048576">
       <formula1>$A$17:$A$19</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan salah" error="Harus sesuai format H/B/T&#10;" sqref="H3:H1048576;I3:I1048576">
-      <formula1>36892</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="K1:K2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Berupa Angka" sqref="J1:J2 M1:M2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="L3:L1048576">
+      <formula1>$A$21:$A$22</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="J1:J2;L1:L2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Berupa Angka" sqref="J3:J1048576 M3:M1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Harus Memilih dari Daftar" sqref="K3:K1048576">
+      <formula1>$A$25:$A$28</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
